--- a/people_reports/COM_1695.xlsx
+++ b/people_reports/COM_1695.xlsx
@@ -462,8 +462,16 @@
           <t>Charles Darby</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Headshots/D/darby-charles_SC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>darby-charles-0000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
